--- a/testcase_result.xlsx
+++ b/testcase_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,12 +536,32 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>GA Image</t>
+          <t>GA Image 1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ACO Image</t>
+          <t>ACO Image 1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>GA Image 2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ACO Image 2</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>GA Image 3</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ACO Image 3</t>
         </is>
       </c>
     </row>
@@ -575,31 +595,67 @@
       <c r="I2" t="n">
         <v>102.1070184418289</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>102.1070184418289</v>
+      </c>
+      <c r="K2" t="n">
+        <v>104.0130965649983</v>
+      </c>
       <c r="L2" t="n">
         <v>104.0130965649983</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>104.0130965649983</v>
+      </c>
+      <c r="N2" t="n">
+        <v>104.0130965649983</v>
+      </c>
       <c r="O2" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>0.001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0009</v>
+      </c>
       <c r="R2" t="n">
         <v>0.0008</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>./imageResult/t5_GA_10.png</t>
+          <t>./imageResult/t5_1_GA_10.png</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>./imageResult/t5_ACO_10.png</t>
+          <t>./imageResult/t5_1_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_ACO_10.png</t>
         </is>
       </c>
     </row>
@@ -633,31 +689,67 @@
       <c r="I3" t="n">
         <v>102.1070184418289</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>102.1070184418289</v>
+      </c>
+      <c r="K3" t="n">
+        <v>102.1070184418289</v>
+      </c>
       <c r="L3" t="n">
         <v>104.0130965649983</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>104.0130965649983</v>
+      </c>
+      <c r="N3" t="n">
+        <v>104.0130965649983</v>
+      </c>
       <c r="O3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>0.0009</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0009</v>
+      </c>
       <c r="R3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0009</v>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>./imageResult/t5_GA_50.png</t>
+          <t>./imageResult/t5_1_GA_50.png</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>./imageResult/t5_ACO_50.png</t>
+          <t>./imageResult/t5_1_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_ACO_50.png</t>
         </is>
       </c>
     </row>
@@ -691,31 +783,67 @@
       <c r="I4" t="n">
         <v>102.1070184418289</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>102.1070184418289</v>
+      </c>
+      <c r="K4" t="n">
+        <v>102.1070184418289</v>
+      </c>
       <c r="L4" t="n">
         <v>104.0130965649983</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>104.0130965649983</v>
+      </c>
+      <c r="N4" t="n">
+        <v>104.0130965649983</v>
+      </c>
       <c r="O4" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0011</v>
+      </c>
       <c r="R4" t="n">
         <v>0.001</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.001</v>
+      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>./imageResult/t5_GA_100.png</t>
+          <t>./imageResult/t5_1_GA_100.png</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>./imageResult/t5_ACO_100.png</t>
+          <t>./imageResult/t5_1_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_2_ACO_100.png</t>
         </is>
       </c>
     </row>
@@ -747,33 +875,69 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>43.64254224345727</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>49.42117558688741</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46.26525516106483</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.81591122239789</v>
+      </c>
       <c r="L5" t="n">
         <v>31.88252949105588</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>31.22691510942754</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31.88252949105588</v>
+      </c>
       <c r="O5" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0011</v>
+      </c>
       <c r="R5" t="n">
         <v>0.0009</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.001</v>
+      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_GA_10.png</t>
+          <t>./imageResult/burma14_1_GA_10.png</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_ACO_10.png</t>
+          <t>./imageResult/burma14_1_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_ACO_10.png</t>
         </is>
       </c>
     </row>
@@ -805,33 +969,69 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>42.72460933397221</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>37.67518177401836</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37.07000077260059</v>
+      </c>
+      <c r="K6" t="n">
+        <v>37.08847053051498</v>
+      </c>
       <c r="L6" t="n">
+        <v>31.22691510942754</v>
+      </c>
+      <c r="M6" t="n">
+        <v>31.22691510942754</v>
+      </c>
+      <c r="N6" t="n">
         <v>31.88252949105588</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
         <v>0.0022</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0022</v>
+      </c>
       <c r="R6" t="n">
         <v>0.0016</v>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0018</v>
+      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_GA_50.png</t>
+          <t>./imageResult/burma14_1_GA_50.png</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_ACO_50.png</t>
+          <t>./imageResult/burma14_1_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_ACO_50.png</t>
         </is>
       </c>
     </row>
@@ -863,33 +1063,69 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>42.27229592389322</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>36.0214184683452</v>
+      </c>
+      <c r="J7" t="n">
+        <v>34.86174060408727</v>
+      </c>
+      <c r="K7" t="n">
+        <v>33.46723944553786</v>
+      </c>
       <c r="L7" t="n">
         <v>31.22691510942754</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>31.45623383762054</v>
+      </c>
+      <c r="N7" t="n">
+        <v>31.88252949105588</v>
+      </c>
       <c r="O7" t="n">
         <v>0.0035</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0034</v>
+      </c>
       <c r="R7" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.0025</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_GA_100.png</t>
+          <t>./imageResult/burma14_1_GA_100.png</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_ACO_100.png</t>
+          <t>./imageResult/burma14_1_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_2_ACO_100.png</t>
         </is>
       </c>
     </row>
@@ -921,33 +1157,69 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>562285.6447819617</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>554427.2997867422</v>
+      </c>
+      <c r="J8" t="n">
+        <v>568444.5940621259</v>
+      </c>
+      <c r="K8" t="n">
+        <v>583017.4756071992</v>
+      </c>
       <c r="L8" t="n">
-        <v>48527.92247208483</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+        <v>49294.74163904427</v>
+      </c>
+      <c r="M8" t="n">
+        <v>49215.61251916289</v>
+      </c>
+      <c r="N8" t="n">
+        <v>49143.7729793856</v>
+      </c>
       <c r="O8" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.008500000000000001</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>0.008500000000000001</v>
+      </c>
       <c r="R8" t="n">
+        <v>0.0674</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.0665</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>0.0679</v>
+      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_GA_10.png</t>
+          <t>./imageResult/lin318_1_GA_10.png</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_ACO_10.png</t>
+          <t>./imageResult/lin318_1_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_ACO_10.png</t>
         </is>
       </c>
     </row>
@@ -979,33 +1251,69 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>534787.8149600039</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>511714.6596703269</v>
+      </c>
+      <c r="J9" t="n">
+        <v>540311.5082501203</v>
+      </c>
+      <c r="K9" t="n">
+        <v>533365.6925958826</v>
+      </c>
       <c r="L9" t="n">
-        <v>49143.7729793856</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+        <v>48563.49026440229</v>
+      </c>
+      <c r="M9" t="n">
+        <v>48572.80330933771</v>
+      </c>
+      <c r="N9" t="n">
+        <v>49215.61251916289</v>
+      </c>
       <c r="O9" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+        <v>0.0351</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0351</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0351</v>
+      </c>
       <c r="R9" t="n">
-        <v>0.3178</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+        <v>0.3182</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3203</v>
+      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_GA_50.png</t>
+          <t>./imageResult/lin318_1_GA_50.png</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_ACO_50.png</t>
+          <t>./imageResult/lin318_1_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_ACO_50.png</t>
         </is>
       </c>
     </row>
@@ -1037,33 +1345,69 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>518955.5023980857</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>525354.1034295225</v>
+      </c>
+      <c r="J10" t="n">
+        <v>503198.0617196271</v>
+      </c>
+      <c r="K10" t="n">
+        <v>521017.7767133673</v>
+      </c>
       <c r="L10" t="n">
-        <v>48554.11488899639</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+        <v>48320.84193889733</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48835.97530486222</v>
+      </c>
+      <c r="N10" t="n">
+        <v>48585.25741399533</v>
+      </c>
       <c r="O10" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+        <v>0.0701</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0697</v>
+      </c>
       <c r="R10" t="n">
-        <v>0.6301</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+        <v>0.6375999999999999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.6425</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6393</v>
+      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_GA_100.png</t>
+          <t>./imageResult/lin318_1_GA_100.png</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_ACO_100.png</t>
+          <t>./imageResult/lin318_1_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_2_ACO_100.png</t>
         </is>
       </c>
     </row>

--- a/testcase_result.xlsx
+++ b/testcase_result.xlsx
@@ -536,32 +536,32 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>GA Image 1</t>
+          <t>Image GA Percobaan 1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ACO Image 1</t>
+          <t>Image GA Percobaan 2</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>GA Image 2</t>
+          <t>Image GA Percobaan 3</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ACO Image 2</t>
+          <t>Image GA-ACO Percobaan 1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>GA Image 3</t>
+          <t>Image GA-ACO Percobaan 2</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>ACO Image 3</t>
+          <t>Image GA-ACO Percobaan 3</t>
         </is>
       </c>
     </row>
@@ -623,10 +623,10 @@
         <v>0.0008</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0008</v>
+        <v>0.0026</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>./imageResult/t5_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_3_GA_10.png</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>./imageResult/t5_1_ACO_10.png</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_10.png</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_ACO_10.png</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_10.png</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>./imageResult/t5_2_ACO_10.png</t>
+          <t>./imageResult/t5_3_ACO_10.png</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>0.0009</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0009</v>
@@ -729,27 +729,27 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>./imageResult/t5_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_3_GA_50.png</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>./imageResult/t5_1_ACO_50.png</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_50.png</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_ACO_50.png</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_50.png</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>./imageResult/t5_2_ACO_50.png</t>
+          <t>./imageResult/t5_3_ACO_50.png</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
         <v>0.001</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="T4" t="n">
         <v>0.001</v>
@@ -823,27 +823,27 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>./imageResult/t5_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>./imageResult/t5_3_GA_100.png</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>./imageResult/t5_1_ACO_100.png</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_100.png</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_ACO_100.png</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_100.png</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>./imageResult/t5_2_ACO_100.png</t>
+          <t>./imageResult/t5_3_ACO_100.png</t>
         </is>
       </c>
     </row>
@@ -875,19 +875,19 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>49.42117558688741</v>
+        <v>50.76352496678864</v>
       </c>
       <c r="J5" t="n">
-        <v>46.26525516106483</v>
+        <v>45.4099348702336</v>
       </c>
       <c r="K5" t="n">
-        <v>46.81591122239789</v>
+        <v>51.55699566478027</v>
       </c>
       <c r="L5" t="n">
+        <v>31.22691510942754</v>
+      </c>
+      <c r="M5" t="n">
         <v>31.88252949105588</v>
-      </c>
-      <c r="M5" t="n">
-        <v>31.22691510942754</v>
       </c>
       <c r="N5" t="n">
         <v>31.88252949105588</v>
@@ -917,27 +917,27 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
+          <t>./imageResult/burma14_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_3_GA_10.png</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>./imageResult/burma14_1_ACO_10.png</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_10.png</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_ACO_10.png</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_10.png</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_2_ACO_10.png</t>
+          <t>./imageResult/burma14_3_ACO_10.png</t>
         </is>
       </c>
     </row>
@@ -969,19 +969,19 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>37.67518177401836</v>
+        <v>37.15106686359928</v>
       </c>
       <c r="J6" t="n">
-        <v>37.07000077260059</v>
+        <v>44.8937944990004</v>
       </c>
       <c r="K6" t="n">
-        <v>37.08847053051498</v>
+        <v>39.6899265990123</v>
       </c>
       <c r="L6" t="n">
         <v>31.22691510942754</v>
       </c>
       <c r="M6" t="n">
-        <v>31.22691510942754</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="N6" t="n">
         <v>31.88252949105588</v>
@@ -990,19 +990,19 @@
         <v>0.0022</v>
       </c>
       <c r="P6" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.0023</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0022</v>
       </c>
       <c r="R6" t="n">
         <v>0.0016</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0016</v>
+        <v>0.0018</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0018</v>
+        <v>0.0017</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1011,27 +1011,27 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
+          <t>./imageResult/burma14_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_3_GA_50.png</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>./imageResult/burma14_1_ACO_50.png</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_50.png</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_ACO_50.png</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_50.png</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_2_ACO_50.png</t>
+          <t>./imageResult/burma14_3_ACO_50.png</t>
         </is>
       </c>
     </row>
@@ -1063,41 +1063,41 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>36.0214184683452</v>
+        <v>34.83039736354373</v>
       </c>
       <c r="J7" t="n">
-        <v>34.86174060408727</v>
+        <v>43.35471087658466</v>
       </c>
       <c r="K7" t="n">
-        <v>33.46723944553786</v>
+        <v>36.56324197122565</v>
       </c>
       <c r="L7" t="n">
+        <v>32.11184821924887</v>
+      </c>
+      <c r="M7" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="N7" t="n">
         <v>31.22691510942754</v>
-      </c>
-      <c r="M7" t="n">
-        <v>31.45623383762054</v>
-      </c>
-      <c r="N7" t="n">
-        <v>31.88252949105588</v>
       </c>
       <c r="O7" t="n">
         <v>0.0035</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0038</v>
+        <v>0.0035</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0034</v>
+        <v>0.0035</v>
       </c>
       <c r="R7" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.0024</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0025</v>
-      </c>
       <c r="U7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_1_GA_100.png</t>
@@ -1105,27 +1105,27 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
+          <t>./imageResult/burma14_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>./imageResult/burma14_3_GA_100.png</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>./imageResult/burma14_1_ACO_100.png</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_100.png</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_ACO_100.png</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_100.png</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>./imageResult/burma14_2_ACO_100.png</t>
+          <t>./imageResult/burma14_3_ACO_100.png</t>
         </is>
       </c>
     </row>
@@ -1157,40 +1157,40 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>554427.2997867422</v>
+        <v>551695.2621313389</v>
       </c>
       <c r="J8" t="n">
-        <v>568444.5940621259</v>
+        <v>563773.6720051733</v>
       </c>
       <c r="K8" t="n">
-        <v>583017.4756071992</v>
+        <v>560316.2805824048</v>
       </c>
       <c r="L8" t="n">
-        <v>49294.74163904427</v>
+        <v>49143.7729793856</v>
       </c>
       <c r="M8" t="n">
         <v>49215.61251916289</v>
       </c>
       <c r="N8" t="n">
-        <v>49143.7729793856</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0091</v>
       </c>
       <c r="P8" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0083</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0674</v>
+        <v>0.068</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0665</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0679</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1199,27 +1199,27 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
+          <t>./imageResult/lin318_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_3_GA_10.png</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>./imageResult/lin318_1_ACO_10.png</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_10.png</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_ACO_10.png</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_10.png</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_2_ACO_10.png</t>
+          <t>./imageResult/lin318_3_ACO_10.png</t>
         </is>
       </c>
     </row>
@@ -1251,40 +1251,40 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>511714.6596703269</v>
+        <v>533921.932031111</v>
       </c>
       <c r="J9" t="n">
-        <v>540311.5082501203</v>
+        <v>541321.7020989901</v>
       </c>
       <c r="K9" t="n">
-        <v>533365.6925958826</v>
+        <v>533837.8675633604</v>
       </c>
       <c r="L9" t="n">
-        <v>48563.49026440229</v>
+        <v>48382.86890044977</v>
       </c>
       <c r="M9" t="n">
-        <v>48572.80330933771</v>
+        <v>48382.86890044977</v>
       </c>
       <c r="N9" t="n">
-        <v>49215.61251916289</v>
+        <v>48382.86890044977</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0351</v>
+        <v>0.0335</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0351</v>
+        <v>0.0337</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0351</v>
+        <v>0.0342</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3182</v>
+        <v>0.3146</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3186</v>
+        <v>0.316</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3203</v>
+        <v>0.3163</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1293,27 +1293,27 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
+          <t>./imageResult/lin318_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_3_GA_50.png</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
           <t>./imageResult/lin318_1_ACO_50.png</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_50.png</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_ACO_50.png</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_50.png</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_2_ACO_50.png</t>
+          <t>./imageResult/lin318_3_ACO_50.png</t>
         </is>
       </c>
     </row>
@@ -1345,40 +1345,40 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>525354.1034295225</v>
+        <v>487818.0359691684</v>
       </c>
       <c r="J10" t="n">
-        <v>503198.0617196271</v>
+        <v>502701.7910008261</v>
       </c>
       <c r="K10" t="n">
-        <v>521017.7767133673</v>
+        <v>523701.944058846</v>
       </c>
       <c r="L10" t="n">
-        <v>48320.84193889733</v>
+        <v>48108.8789343028</v>
       </c>
       <c r="M10" t="n">
-        <v>48835.97530486222</v>
+        <v>48783.31682921913</v>
       </c>
       <c r="N10" t="n">
-        <v>48585.25741399533</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0701</v>
+        <v>0.0663</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0687</v>
+        <v>0.0663</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0697</v>
+        <v>0.0675</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6375999999999999</v>
+        <v>0.6301</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6425</v>
+        <v>0.6429</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6393</v>
+        <v>0.6337</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1387,27 +1387,27 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>./imageResult/lin318_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>./imageResult/lin318_3_GA_100.png</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>./imageResult/lin318_1_ACO_100.png</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_100.png</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_ACO_100.png</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_100.png</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>./imageResult/lin318_2_ACO_100.png</t>
+          <t>./imageResult/lin318_3_ACO_100.png</t>
         </is>
       </c>
     </row>

--- a/testcase_result.xlsx
+++ b/testcase_result.xlsx
@@ -599,7 +599,7 @@
         <v>102.1070184418289</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0130965649983</v>
+        <v>102.1070184418289</v>
       </c>
       <c r="L2" t="n">
         <v>104.0130965649983</v>
@@ -611,22 +611,22 @@
         <v>104.0130965649983</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="P2" t="n">
         <v>0.0008</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="R2" t="n">
         <v>0.0008</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0026</v>
+        <v>0.0008</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0007</v>
+        <v>0.0016</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -705,16 +705,16 @@
         <v>104.0130965649983</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="P3" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.001</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.0009</v>
-      </c>
       <c r="R3" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="S3" t="n">
         <v>0.0009</v>
@@ -799,19 +799,19 @@
         <v>104.0130965649983</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0011</v>
       </c>
       <c r="R4" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.001</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0011</v>
       </c>
       <c r="T4" t="n">
         <v>0.001</v>
@@ -875,19 +875,19 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>50.76352496678864</v>
+        <v>39.37213886457447</v>
       </c>
       <c r="J5" t="n">
-        <v>45.4099348702336</v>
+        <v>45.69297498377761</v>
       </c>
       <c r="K5" t="n">
-        <v>51.55699566478027</v>
+        <v>49.70847756767837</v>
       </c>
       <c r="L5" t="n">
         <v>31.22691510942754</v>
       </c>
       <c r="M5" t="n">
-        <v>31.88252949105588</v>
+        <v>31.22691510942754</v>
       </c>
       <c r="N5" t="n">
         <v>31.88252949105588</v>
@@ -899,13 +899,13 @@
         <v>0.0011</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="R5" t="n">
         <v>0.0009</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="T5" t="n">
         <v>0.001</v>
@@ -969,40 +969,40 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>37.15106686359928</v>
+        <v>37.00463120931033</v>
       </c>
       <c r="J6" t="n">
-        <v>44.8937944990004</v>
+        <v>44.27627586887465</v>
       </c>
       <c r="K6" t="n">
-        <v>39.6899265990123</v>
+        <v>41.01081695451413</v>
       </c>
       <c r="L6" t="n">
-        <v>31.22691510942754</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="M6" t="n">
-        <v>31.88252949105588</v>
+        <v>32.11184821924887</v>
       </c>
       <c r="N6" t="n">
-        <v>31.88252949105588</v>
+        <v>31.45623383762054</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0022</v>
+        <v>0.0021</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0022</v>
+        <v>0.0023</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0023</v>
       </c>
       <c r="R6" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.0016</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0017</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1063,16 +1063,16 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>34.83039736354373</v>
+        <v>42.19843329089865</v>
       </c>
       <c r="J7" t="n">
-        <v>43.35471087658466</v>
+        <v>40.31098556893893</v>
       </c>
       <c r="K7" t="n">
-        <v>36.56324197122565</v>
+        <v>42.57832116775565</v>
       </c>
       <c r="L7" t="n">
-        <v>32.11184821924887</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="M7" t="n">
         <v>31.88252949105588</v>
@@ -1081,7 +1081,7 @@
         <v>31.22691510942754</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0035</v>
+        <v>0.0041</v>
       </c>
       <c r="P7" t="n">
         <v>0.0035</v>
@@ -1157,40 +1157,40 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>551695.2621313389</v>
+        <v>560654.4810176021</v>
       </c>
       <c r="J8" t="n">
-        <v>563773.6720051733</v>
+        <v>572266.7876941945</v>
       </c>
       <c r="K8" t="n">
-        <v>560316.2805824048</v>
+        <v>565783.7988525628</v>
       </c>
       <c r="L8" t="n">
         <v>49143.7729793856</v>
       </c>
       <c r="M8" t="n">
-        <v>49215.61251916289</v>
+        <v>49294.74163904427</v>
       </c>
       <c r="N8" t="n">
         <v>49215.61251916289</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0091</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0083</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="R8" t="n">
-        <v>0.068</v>
+        <v>0.0688</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.0683</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1251,40 +1251,40 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>533921.932031111</v>
+        <v>535498.8765180835</v>
       </c>
       <c r="J9" t="n">
-        <v>541321.7020989901</v>
+        <v>535156.0096518323</v>
       </c>
       <c r="K9" t="n">
-        <v>533837.8675633604</v>
+        <v>530950.212590666</v>
       </c>
       <c r="L9" t="n">
-        <v>48382.86890044977</v>
+        <v>48359.58007325514</v>
       </c>
       <c r="M9" t="n">
-        <v>48382.86890044977</v>
+        <v>48350.55885416948</v>
       </c>
       <c r="N9" t="n">
-        <v>48382.86890044977</v>
+        <v>48554.11488899639</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0335</v>
+        <v>0.0347</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0337</v>
+        <v>0.0357</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0342</v>
+        <v>0.0345</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3146</v>
+        <v>0.331</v>
       </c>
       <c r="S9" t="n">
-        <v>0.316</v>
+        <v>0.3248</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3163</v>
+        <v>0.3297</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1345,40 +1345,40 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>487818.0359691684</v>
+        <v>513333.8967455443</v>
       </c>
       <c r="J10" t="n">
-        <v>502701.7910008261</v>
+        <v>535586.108007305</v>
       </c>
       <c r="K10" t="n">
-        <v>523701.944058846</v>
+        <v>527628.7018299692</v>
       </c>
       <c r="L10" t="n">
-        <v>48108.8789343028</v>
+        <v>48928.00065664363</v>
       </c>
       <c r="M10" t="n">
         <v>48783.31682921913</v>
       </c>
       <c r="N10" t="n">
-        <v>49215.61251916289</v>
+        <v>49143.7729793856</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0663</v>
+        <v>0.068</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0663</v>
+        <v>0.0696</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0675</v>
+        <v>0.0678</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6301</v>
+        <v>0.6637999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6429</v>
+        <v>0.6497000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6337</v>
+        <v>0.6545</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>

--- a/testcase_result.xlsx
+++ b/testcase_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,130 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Generasi</t>
+          <t>Generasi GA</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Populasi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Generasi ACO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jumlah Semut</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Populasi</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Alpha</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Beta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Rho</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Pheromone Awal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA Percobaan 1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA Percobaan 2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA Percobaan 3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA-ACO Percobaan 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA-ACO Percobaan 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA-ACO Percobaan 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA Percobaan 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA Percobaan 2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA Percobaan 3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA-ACO Percobaan 1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA-ACO Percobaan 2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA-ACO Percobaan 3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Image GA Percobaan 1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Image GA Percobaan 2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Image GA Percobaan 3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Image GA-ACO Percobaan 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Image GA-ACO Percobaan 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Image GA-ACO Percobaan 3</t>
         </is>
@@ -578,22 +583,22 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
       <c r="I2" t="n">
-        <v>102.1070184418289</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>102.1070184418289</v>
@@ -602,7 +607,7 @@
         <v>102.1070184418289</v>
       </c>
       <c r="L2" t="n">
-        <v>104.0130965649983</v>
+        <v>102.1070184418289</v>
       </c>
       <c r="M2" t="n">
         <v>104.0130965649983</v>
@@ -611,13 +616,13 @@
         <v>104.0130965649983</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0011</v>
+        <v>104.0130965649983</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
       <c r="R2" t="n">
         <v>0.0008</v>
@@ -626,34 +631,37 @@
         <v>0.0008</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="U2" t="inlineStr">
+        <v>0.0008</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>./imageResult/t5_1_GA_10.png</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_GA_10.png</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>./imageResult/t5_3_GA_10.png</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>./imageResult/t5_1_ACO_10.png</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_ACO_10.png</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>./imageResult/t5_3_ACO_10.png</t>
         </is>
@@ -672,22 +680,22 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
       <c r="I3" t="n">
-        <v>102.1070184418289</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>102.1070184418289</v>
@@ -696,7 +704,7 @@
         <v>102.1070184418289</v>
       </c>
       <c r="L3" t="n">
-        <v>104.0130965649983</v>
+        <v>102.1070184418289</v>
       </c>
       <c r="M3" t="n">
         <v>104.0130965649983</v>
@@ -705,49 +713,52 @@
         <v>104.0130965649983</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001</v>
+        <v>104.0130965649983</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0011</v>
+        <v>0.0009</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0009</v>
+        <v>0.0014</v>
       </c>
       <c r="T3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>./imageResult/t5_1_GA_50.png</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_GA_50.png</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>./imageResult/t5_3_GA_50.png</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>./imageResult/t5_1_ACO_50.png</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_ACO_50.png</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>./imageResult/t5_3_ACO_50.png</t>
         </is>
@@ -766,22 +777,22 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
       <c r="I4" t="n">
-        <v>102.1070184418289</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>102.1070184418289</v>
@@ -790,7 +801,7 @@
         <v>102.1070184418289</v>
       </c>
       <c r="L4" t="n">
-        <v>104.0130965649983</v>
+        <v>102.1070184418289</v>
       </c>
       <c r="M4" t="n">
         <v>104.0130965649983</v>
@@ -799,10 +810,10 @@
         <v>104.0130965649983</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0013</v>
+        <v>104.0130965649983</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0012</v>
+        <v>0.0011</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0011</v>
@@ -816,32 +827,35 @@
       <c r="T4" t="n">
         <v>0.001</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>./imageResult/t5_1_GA_100.png</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_GA_100.png</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>./imageResult/t5_3_GA_100.png</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>./imageResult/t5_1_ACO_100.png</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>./imageResult/t5_2_ACO_100.png</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>./imageResult/t5_3_ACO_100.png</t>
         </is>
@@ -863,79 +877,82 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
       <c r="I5" t="n">
-        <v>39.37213886457447</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>45.69297498377761</v>
+        <v>52.29157121533663</v>
       </c>
       <c r="K5" t="n">
-        <v>49.70847756767837</v>
+        <v>50.04909059225493</v>
       </c>
       <c r="L5" t="n">
-        <v>31.22691510942754</v>
+        <v>51.47932488581549</v>
       </c>
       <c r="M5" t="n">
-        <v>31.22691510942754</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="N5" t="n">
         <v>31.88252949105588</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0011</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="P5" t="n">
         <v>0.0011</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0009</v>
+        <v>0.0011</v>
       </c>
       <c r="S5" t="n">
         <v>0.001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="U5" t="inlineStr">
+        <v>0.0009</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>./imageResult/burma14_1_GA_10.png</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_GA_10.png</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>./imageResult/burma14_3_GA_10.png</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>./imageResult/burma14_1_ACO_10.png</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_ACO_10.png</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>./imageResult/burma14_3_ACO_10.png</t>
         </is>
@@ -954,82 +971,85 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
       <c r="I6" t="n">
-        <v>37.00463120931033</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>44.27627586887465</v>
+        <v>38.97701604838954</v>
       </c>
       <c r="K6" t="n">
-        <v>41.01081695451413</v>
+        <v>44.13861991124494</v>
       </c>
       <c r="L6" t="n">
+        <v>46.76581113716075</v>
+      </c>
+      <c r="M6" t="n">
+        <v>31.45623383762054</v>
+      </c>
+      <c r="N6" t="n">
         <v>31.88252949105588</v>
       </c>
-      <c r="M6" t="n">
-        <v>32.11184821924887</v>
-      </c>
-      <c r="N6" t="n">
-        <v>31.45623383762054</v>
-      </c>
       <c r="O6" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.0021</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0023</v>
-      </c>
       <c r="R6" t="n">
-        <v>0.0018</v>
+        <v>0.0021</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="T6" t="n">
         <v>0.0016</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>./imageResult/burma14_1_GA_50.png</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_GA_50.png</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>./imageResult/burma14_3_GA_50.png</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>./imageResult/burma14_1_ACO_50.png</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_ACO_50.png</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>./imageResult/burma14_3_ACO_50.png</t>
         </is>
@@ -1048,82 +1068,85 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
       <c r="I7" t="n">
-        <v>42.19843329089865</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>40.31098556893893</v>
+        <v>39.36589804668111</v>
       </c>
       <c r="K7" t="n">
-        <v>42.57832116775565</v>
+        <v>40.79110455795923</v>
       </c>
       <c r="L7" t="n">
-        <v>31.88252949105588</v>
+        <v>38.17739758246899</v>
       </c>
       <c r="M7" t="n">
         <v>31.88252949105588</v>
       </c>
       <c r="N7" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="O7" t="n">
         <v>31.22691510942754</v>
       </c>
-      <c r="O7" t="n">
-        <v>0.0041</v>
-      </c>
       <c r="P7" t="n">
-        <v>0.0035</v>
+        <v>0.0034</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0035</v>
+        <v>0.0039</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0025</v>
+        <v>0.0034</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="U7" t="inlineStr">
+        <v>0.0023</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_1_GA_100.png</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_GA_100.png</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_3_GA_100.png</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_1_ACO_100.png</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_2_ACO_100.png</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>./imageResult/burma14_3_ACO_100.png</t>
         </is>
@@ -1139,85 +1162,88 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
         <v>100</v>
       </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
       <c r="I8" t="n">
-        <v>560654.4810176021</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>572266.7876941945</v>
+        <v>557916.5971658916</v>
       </c>
       <c r="K8" t="n">
-        <v>565783.7988525628</v>
+        <v>568259.1518398157</v>
       </c>
       <c r="L8" t="n">
+        <v>564105.4600579566</v>
+      </c>
+      <c r="M8" t="n">
+        <v>49215.61251916289</v>
+      </c>
+      <c r="N8" t="n">
         <v>49143.7729793856</v>
       </c>
-      <c r="M8" t="n">
-        <v>49294.74163904427</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>49215.61251916289</v>
       </c>
-      <c r="O8" t="n">
-        <v>0.008500000000000001</v>
-      </c>
       <c r="P8" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0081</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0086</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0688</v>
+        <v>0.008</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.0668</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0683</v>
-      </c>
-      <c r="U8" t="inlineStr">
+        <v>0.06560000000000001</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.06560000000000001</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>./imageResult/lin318_1_GA_10.png</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_GA_10.png</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>./imageResult/lin318_3_GA_10.png</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>./imageResult/lin318_1_ACO_10.png</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_ACO_10.png</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>./imageResult/lin318_3_ACO_10.png</t>
         </is>
@@ -1233,85 +1259,88 @@
         <v>50</v>
       </c>
       <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
         <v>100</v>
       </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
       <c r="I9" t="n">
-        <v>535498.8765180835</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>535156.0096518323</v>
+        <v>516103.7735556596</v>
       </c>
       <c r="K9" t="n">
-        <v>530950.212590666</v>
+        <v>511781.1117244247</v>
       </c>
       <c r="L9" t="n">
-        <v>48359.58007325514</v>
+        <v>537484.570807148</v>
       </c>
       <c r="M9" t="n">
-        <v>48350.55885416948</v>
+        <v>49294.74163904427</v>
       </c>
       <c r="N9" t="n">
-        <v>48554.11488899639</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0347</v>
+        <v>48320.84193889733</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0357</v>
+        <v>0.0337</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0345</v>
+        <v>0.034</v>
       </c>
       <c r="R9" t="n">
-        <v>0.331</v>
+        <v>0.0346</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3248</v>
+        <v>0.3127</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3297</v>
-      </c>
-      <c r="U9" t="inlineStr">
+        <v>0.3193</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3154</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>./imageResult/lin318_1_GA_50.png</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_GA_50.png</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>./imageResult/lin318_3_GA_50.png</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>./imageResult/lin318_1_ACO_50.png</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_ACO_50.png</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>./imageResult/lin318_3_ACO_50.png</t>
         </is>
@@ -1327,85 +1356,88 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
         <v>100</v>
       </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
       <c r="I10" t="n">
-        <v>513333.8967455443</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>535586.108007305</v>
+        <v>504397.0554574772</v>
       </c>
       <c r="K10" t="n">
-        <v>527628.7018299692</v>
+        <v>516374.9896154903</v>
       </c>
       <c r="L10" t="n">
-        <v>48928.00065664363</v>
+        <v>506839.1840932127</v>
       </c>
       <c r="M10" t="n">
-        <v>48783.31682921913</v>
+        <v>49143.7729793856</v>
       </c>
       <c r="N10" t="n">
-        <v>49143.7729793856</v>
+        <v>48272.74602537625</v>
       </c>
       <c r="O10" t="n">
-        <v>0.068</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0696</v>
+        <v>0.0672</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0678</v>
+        <v>0.0665</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6637999999999999</v>
+        <v>0.0667</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6497000000000001</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6545</v>
-      </c>
-      <c r="U10" t="inlineStr">
+        <v>0.6267</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6378</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>./imageResult/lin318_1_GA_100.png</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_GA_100.png</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>./imageResult/lin318_3_GA_100.png</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>./imageResult/lin318_1_ACO_100.png</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>./imageResult/lin318_2_ACO_100.png</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>./imageResult/lin318_3_ACO_100.png</t>
         </is>

--- a/testcase_result.xlsx
+++ b/testcase_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,97 +496,217 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Rata Rata Jarak GA</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Standar Deviasi Jarak GA</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jarak ACO Percobaan 1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Jarak ACO Percobaan 2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Jarak ACO Percobaan 3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Rata Rata Jarak ACO</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Standar Deviasi Jarak ACO</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Jarak GA-ACO Percobaan 1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA-ACO Percobaan 2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Jarak GA-ACO Percobaan 3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Rata Rata Jarak GA-ACO</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Standar Deviasi Jarak GA-ACO</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA Percobaan 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA Percobaan 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA Percobaan 3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Rata Rata Runtime GA</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Runtime ACO Percobaan 1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Runtime ACO Percobaan 2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Runtime ACO Percobaan 3</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Rata Rata Runtime ACO</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA-ACO Percobaan 1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA-ACO Percobaan 2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Runtime GA-ACO Percobaan 3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Rata Rata Runtime GA-ACO</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Image GA Percobaan 1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Image GA Percobaan 2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Image GA Percobaan 3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Image ACO Percobaan 1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Image ACO Percobaan 2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Image ACO Percobaan 3</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Image GA-ACO Percobaan 1</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Image GA-ACO Percobaan 2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Image GA-ACO Percobaan 3</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO 2 Line Percobaan 1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO 2 Line Percobaan 2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO 2 Line Percobaan 3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO 1 Line Percobaan 1</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO 1 Line Percobaan 2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO 1 Line Percobaan 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t5.csv</t>
+          <t>burma14.csv</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -601,89 +721,179 @@
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>102.1070184418289</v>
+        <v>47.02204854933991</v>
       </c>
       <c r="K2" t="n">
-        <v>102.1070184418289</v>
+        <v>49.37123372250957</v>
       </c>
       <c r="L2" t="n">
-        <v>102.1070184418289</v>
+        <v>44.42160263387568</v>
       </c>
       <c r="M2" t="n">
-        <v>104.0130965649983</v>
+        <v>46.93829496857504</v>
       </c>
       <c r="N2" t="n">
-        <v>104.0130965649983</v>
+        <v>2.475878222997041</v>
       </c>
       <c r="O2" t="n">
-        <v>104.0130965649983</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0012</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0009</v>
+        <v>31.88252949105587</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0008</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0008</v>
+        <v>2.51214793389404e-15</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0008</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_1_GA_10.png</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_10.png</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_3_GA_10.png</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_1_ACO_10.png</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_ACO_10.png</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_3_ACO_10.png</t>
+        <v>31.88252949105588</v>
+      </c>
+      <c r="V2" t="n">
+        <v>32.11184821924887</v>
+      </c>
+      <c r="W2" t="n">
+        <v>31.95896906712021</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1323972294524472</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0002666666666666666</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0004333333333333333</v>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_10.png</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_10.png</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(ACO)_10.png</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(ACO)_10.png</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(ACO)_10.png</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(2 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(2 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(2 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(1 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(1 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(1 line)_10.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t5.csv</t>
+          <t>burma14.csv</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -698,89 +908,179 @@
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>102.1070184418289</v>
+        <v>44.63669832332222</v>
       </c>
       <c r="K3" t="n">
-        <v>102.1070184418289</v>
+        <v>48.08749426585431</v>
       </c>
       <c r="L3" t="n">
-        <v>102.1070184418289</v>
+        <v>40.3208491518209</v>
       </c>
       <c r="M3" t="n">
-        <v>104.0130965649983</v>
+        <v>44.34834724699915</v>
       </c>
       <c r="N3" t="n">
-        <v>104.0130965649983</v>
+        <v>3.891343449150597</v>
       </c>
       <c r="O3" t="n">
-        <v>104.0130965649983</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="P3" t="n">
+        <v>31.88252949105587</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="R3" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.51214793389404e-15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>31.45623383762054</v>
+      </c>
+      <c r="U3" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32.11184821924887</v>
+      </c>
+      <c r="W3" t="n">
+        <v>31.8168705159751</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3327023896908005</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AD3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_1_GA_50.png</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_50.png</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_3_GA_50.png</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_1_ACO_50.png</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_ACO_50.png</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_3_ACO_50.png</t>
+      <c r="AF3" t="n">
+        <v>0.0008666666666666666</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_50.png</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_50.png</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(ACO)_50.png</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(ACO)_50.png</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(ACO)_50.png</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(2 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(2 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(2 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(1 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(1 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(1 line)_50.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t5.csv</t>
+          <t>burma14.csv</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -795,76 +1095,166 @@
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>102.1070184418289</v>
+        <v>37.54764670295317</v>
       </c>
       <c r="K4" t="n">
-        <v>102.1070184418289</v>
+        <v>43.6673971827447</v>
       </c>
       <c r="L4" t="n">
-        <v>102.1070184418289</v>
+        <v>42.395239619985</v>
       </c>
       <c r="M4" t="n">
-        <v>104.0130965649983</v>
+        <v>41.20342783522762</v>
       </c>
       <c r="N4" t="n">
-        <v>104.0130965649983</v>
+        <v>3.229264309628754</v>
       </c>
       <c r="O4" t="n">
-        <v>104.0130965649983</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0011</v>
+        <v>31.88252949105587</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0011</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0011</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001</v>
+        <v>2.51214793389404e-15</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_1_GA_100.png</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_GA_100.png</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_3_GA_100.png</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_1_ACO_100.png</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_2_ACO_100.png</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>./imageResult/t5_3_ACO_100.png</t>
+        <v>31.88252949105588</v>
+      </c>
+      <c r="V4" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="W4" t="n">
+        <v>31.88252949105588</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.002266666666666667</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.003966666666666667</v>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_100.png</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_100.png</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_100.png</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_ACO_100.png</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(ACO)_100.png</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(ACO)_100.png</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(ACO)_100.png</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(2 line)_100.png</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(2 line)_100.png</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(2 line)_100.png</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_(1 line)_100.png</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_(1 line)_100.png</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_(1 line)_100.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>burma14.csv</t>
+          <t>lin318.csv</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -877,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -892,76 +1282,166 @@
         <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>52.29157121533663</v>
+        <v>569160.7483011893</v>
       </c>
       <c r="K5" t="n">
-        <v>50.04909059225493</v>
+        <v>558473.7162860915</v>
       </c>
       <c r="L5" t="n">
-        <v>51.47932488581549</v>
+        <v>543516.8468705057</v>
       </c>
       <c r="M5" t="n">
-        <v>31.88252949105588</v>
+        <v>557050.4371525955</v>
       </c>
       <c r="N5" t="n">
-        <v>31.88252949105588</v>
+        <v>12881.06023452796</v>
       </c>
       <c r="O5" t="n">
-        <v>31.88252949105588</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0011</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0011</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0009</v>
+        <v>49294.74163904427</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_1_GA_10.png</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_10.png</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_3_GA_10.png</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_1_ACO_10.png</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_ACO_10.png</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_3_ACO_10.png</t>
+        <v>49143.7729793856</v>
+      </c>
+      <c r="V5" t="n">
+        <v>49143.7729793856</v>
+      </c>
+      <c r="W5" t="n">
+        <v>49194.09586593849</v>
+      </c>
+      <c r="X5" t="n">
+        <v>87.16179629313369</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0643</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.06463333333333333</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0699</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0704</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.07013333333333334</v>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_10.png</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_10.png</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_10.png</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_ACO_10.png</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_(ACO)_10.png</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_(ACO)_10.png</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_(ACO)_10.png</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_(2 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_(2 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_(2 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_(1 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_(1 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_(1 line)_10.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>burma14.csv</t>
+          <t>lin318.csv</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -971,10 +1451,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -989,457 +1469,159 @@
         <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>38.97701604838954</v>
+        <v>562896.9251052644</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13861991124494</v>
+        <v>533114.824969254</v>
       </c>
       <c r="L6" t="n">
-        <v>46.76581113716075</v>
+        <v>530123.5255424454</v>
       </c>
       <c r="M6" t="n">
-        <v>31.45623383762054</v>
+        <v>542045.0918723213</v>
       </c>
       <c r="N6" t="n">
-        <v>31.88252949105588</v>
+        <v>18120.04911544285</v>
       </c>
       <c r="O6" t="n">
-        <v>31.88252949105588</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002</v>
+        <v>48908.16748127056</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0021</v>
+        <v>48501.91935279912</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0021</v>
+        <v>48875.23311774419</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0016</v>
+        <v>357.9846199967952</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0016</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_1_GA_50.png</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_50.png</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_3_GA_50.png</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_1_ACO_50.png</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_ACO_50.png</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_3_ACO_50.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>burma14.csv</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>39.36589804668111</v>
-      </c>
-      <c r="K7" t="n">
-        <v>40.79110455795923</v>
-      </c>
-      <c r="L7" t="n">
-        <v>38.17739758246899</v>
-      </c>
-      <c r="M7" t="n">
-        <v>31.88252949105588</v>
-      </c>
-      <c r="N7" t="n">
-        <v>31.88252949105588</v>
-      </c>
-      <c r="O7" t="n">
-        <v>31.22691510942754</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_1_GA_100.png</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_GA_100.png</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_3_GA_100.png</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_1_ACO_100.png</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_2_ACO_100.png</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>./imageResult/burma14_3_ACO_100.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lin318.csv</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>557916.5971658916</v>
-      </c>
-      <c r="K8" t="n">
-        <v>568259.1518398157</v>
-      </c>
-      <c r="L8" t="n">
-        <v>564105.4600579566</v>
-      </c>
-      <c r="M8" t="n">
-        <v>49215.61251916289</v>
-      </c>
-      <c r="N8" t="n">
-        <v>49143.7729793856</v>
-      </c>
-      <c r="O8" t="n">
-        <v>49215.61251916289</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.0668</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.06560000000000001</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.06560000000000001</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_1_GA_10.png</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_10.png</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_3_GA_10.png</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_1_ACO_10.png</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_ACO_10.png</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_3_ACO_10.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lin318.csv</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>516103.7735556596</v>
-      </c>
-      <c r="K9" t="n">
-        <v>511781.1117244247</v>
-      </c>
-      <c r="L9" t="n">
-        <v>537484.570807148</v>
-      </c>
-      <c r="M9" t="n">
-        <v>49294.74163904427</v>
-      </c>
-      <c r="N9" t="n">
-        <v>49215.61251916289</v>
-      </c>
-      <c r="O9" t="n">
-        <v>48320.84193889733</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0337</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0346</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.3127</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.3193</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.3154</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_1_GA_50.png</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_50.png</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_3_GA_50.png</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_1_ACO_50.png</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_ACO_50.png</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_3_ACO_50.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lin318.csv</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>504397.0554574772</v>
-      </c>
-      <c r="K10" t="n">
-        <v>516374.9896154903</v>
-      </c>
-      <c r="L10" t="n">
-        <v>506839.1840932127</v>
-      </c>
-      <c r="M10" t="n">
-        <v>49143.7729793856</v>
-      </c>
-      <c r="N10" t="n">
-        <v>48272.74602537625</v>
-      </c>
-      <c r="O10" t="n">
-        <v>49215.61251916289</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0672</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0665</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.6264999999999999</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.6267</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.6378</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_1_GA_100.png</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_GA_100.png</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_3_GA_100.png</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_1_ACO_100.png</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_2_ACO_100.png</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>./imageResult/lin318_3_ACO_100.png</t>
+        <v>48432.50803209609</v>
+      </c>
+      <c r="V6" t="n">
+        <v>48311.16244923814</v>
+      </c>
+      <c r="W6" t="n">
+        <v>48653.09433349904</v>
+      </c>
+      <c r="X6" t="n">
+        <v>490.9187504279052</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.02863333333333333</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1565</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1565</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1554333333333333</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1836</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1852</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1883</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1857</v>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_50.png</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_50.png</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_50.png</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_ACO_50.png</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_(ACO)_50.png</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_(ACO)_50.png</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_(ACO)_50.png</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_(2 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_(2 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_(2 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_(1 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_(1 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_(1 line)_50.png</t>
         </is>
       </c>
     </row>

--- a/testcase_result.xlsx
+++ b/testcase_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:BB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,6 +689,21 @@
           <t>Image GA-ACO 1 Line Percobaan 3</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO All Percobaan 1</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO All Percobaan 2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Image GA-ACO All Percobaan 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -721,19 +736,19 @@
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>47.02204854933991</v>
+        <v>49.70749645258855</v>
       </c>
       <c r="K2" t="n">
-        <v>49.37123372250957</v>
+        <v>51.22634287474276</v>
       </c>
       <c r="L2" t="n">
-        <v>44.42160263387568</v>
+        <v>41.74882913758471</v>
       </c>
       <c r="M2" t="n">
-        <v>46.93829496857504</v>
+        <v>47.56088948830534</v>
       </c>
       <c r="N2" t="n">
-        <v>2.475878222997041</v>
+        <v>5.090359295161472</v>
       </c>
       <c r="O2" t="n">
         <v>31.88252949105588</v>
@@ -742,31 +757,31 @@
         <v>31.88252949105588</v>
       </c>
       <c r="Q2" t="n">
-        <v>31.88252949105587</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="R2" t="n">
         <v>31.88252949105588</v>
       </c>
       <c r="S2" t="n">
-        <v>2.51214793389404e-15</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.88252949105588</v>
+        <v>31.45623383762054</v>
       </c>
       <c r="U2" t="n">
         <v>31.88252949105588</v>
       </c>
       <c r="V2" t="n">
-        <v>32.11184821924887</v>
+        <v>31.88252949105587</v>
       </c>
       <c r="W2" t="n">
-        <v>31.95896906712021</v>
+        <v>31.74043093991076</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1323972294524472</v>
+        <v>0.2461219102652595</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="Z2" t="n">
         <v>0.0003</v>
@@ -775,7 +790,7 @@
         <v>0.0003</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002666666666666666</v>
+        <v>0.0003</v>
       </c>
       <c r="AC2" t="n">
         <v>0.0002</v>
@@ -796,10 +811,10 @@
         <v>0.0005</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0004</v>
+        <v>0.0005</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0004333333333333333</v>
+        <v>0.0004666666666666667</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -874,6 +889,21 @@
       <c r="AY2" t="inlineStr">
         <is>
           <t>./tcImages/burma14_3_GA_ACO_(1 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_All_10.png</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_All_10.png</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_All_10.png</t>
         </is>
       </c>
     </row>
@@ -908,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>44.63669832332222</v>
+        <v>37.06866231056024</v>
       </c>
       <c r="K3" t="n">
-        <v>48.08749426585431</v>
+        <v>36.23408339635454</v>
       </c>
       <c r="L3" t="n">
-        <v>40.3208491518209</v>
+        <v>39.89511019355628</v>
       </c>
       <c r="M3" t="n">
-        <v>44.34834724699915</v>
+        <v>37.73261863349035</v>
       </c>
       <c r="N3" t="n">
-        <v>3.891343449150597</v>
+        <v>1.918699507876747</v>
       </c>
       <c r="O3" t="n">
         <v>31.88252949105588</v>
       </c>
       <c r="P3" t="n">
-        <v>31.88252949105587</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="Q3" t="n">
         <v>31.88252949105588</v>
@@ -935,22 +965,22 @@
         <v>31.88252949105588</v>
       </c>
       <c r="S3" t="n">
-        <v>2.51214793389404e-15</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>31.45623383762054</v>
+        <v>31.22691510942754</v>
       </c>
       <c r="U3" t="n">
         <v>31.88252949105588</v>
       </c>
       <c r="V3" t="n">
-        <v>32.11184821924887</v>
+        <v>31.88252949105588</v>
       </c>
       <c r="W3" t="n">
-        <v>31.8168705159751</v>
+        <v>31.66399136384643</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3327023896908005</v>
+        <v>0.3785191397177077</v>
       </c>
       <c r="Y3" t="n">
         <v>0.0012</v>
@@ -968,13 +998,13 @@
         <v>0.0009</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
       <c r="AE3" t="n">
         <v>0.0009</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0008666666666666666</v>
+        <v>0.0009000000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>0.002</v>
@@ -1061,6 +1091,21 @@
       <c r="AY3" t="inlineStr">
         <is>
           <t>./tcImages/burma14_3_GA_ACO_(1 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_All_50.png</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_All_50.png</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_All_50.png</t>
         </is>
       </c>
     </row>
@@ -1095,19 +1140,19 @@
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>37.54764670295317</v>
+        <v>36.61066473569531</v>
       </c>
       <c r="K4" t="n">
-        <v>43.6673971827447</v>
+        <v>31.80719333670128</v>
       </c>
       <c r="L4" t="n">
-        <v>42.395239619985</v>
+        <v>43.38553809791235</v>
       </c>
       <c r="M4" t="n">
-        <v>41.20342783522762</v>
+        <v>37.26779872343631</v>
       </c>
       <c r="N4" t="n">
-        <v>3.229264309628754</v>
+        <v>5.817077071927895</v>
       </c>
       <c r="O4" t="n">
         <v>31.88252949105588</v>
@@ -1125,22 +1170,22 @@
         <v>2.51214793389404e-15</v>
       </c>
       <c r="T4" t="n">
-        <v>31.88252949105588</v>
+        <v>32.11184821924887</v>
       </c>
       <c r="U4" t="n">
         <v>31.88252949105588</v>
       </c>
       <c r="V4" t="n">
-        <v>31.88252949105588</v>
+        <v>31.22691510942754</v>
       </c>
       <c r="W4" t="n">
-        <v>31.88252949105588</v>
+        <v>31.74043093991077</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.4592609834208278</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0022</v>
+        <v>0.0023</v>
       </c>
       <c r="Z4" t="n">
         <v>0.0023</v>
@@ -1149,7 +1194,7 @@
         <v>0.0023</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.002266666666666667</v>
+        <v>0.0023</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0017</v>
@@ -1158,13 +1203,13 @@
         <v>0.0017</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0017</v>
+        <v>0.0019</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0017</v>
+        <v>0.001766666666666667</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0039</v>
+        <v>0.004</v>
       </c>
       <c r="AH4" t="n">
         <v>0.004</v>
@@ -1173,7 +1218,7 @@
         <v>0.004</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.003966666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
@@ -1248,6 +1293,21 @@
       <c r="AY4" t="inlineStr">
         <is>
           <t>./tcImages/burma14_3_GA_ACO_(1 line)_100.png</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_1_GA_ACO_All_100.png</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_2_GA_ACO_All_100.png</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>./tcImages/burma14_3_GA_ACO_All_100.png</t>
         </is>
       </c>
     </row>
@@ -1282,19 +1342,19 @@
         <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>569160.7483011893</v>
+        <v>563066.2639079965</v>
       </c>
       <c r="K5" t="n">
-        <v>558473.7162860915</v>
+        <v>574205.9909832703</v>
       </c>
       <c r="L5" t="n">
-        <v>543516.8468705057</v>
+        <v>572895.2970148403</v>
       </c>
       <c r="M5" t="n">
-        <v>557050.4371525955</v>
+        <v>570055.850635369</v>
       </c>
       <c r="N5" t="n">
-        <v>12881.06023452796</v>
+        <v>6088.531976947872</v>
       </c>
       <c r="O5" t="n">
         <v>49215.61251916289</v>
@@ -1303,13 +1363,13 @@
         <v>49215.61251916289</v>
       </c>
       <c r="Q5" t="n">
-        <v>49215.61251916289</v>
+        <v>49168.33743272909</v>
       </c>
       <c r="R5" t="n">
-        <v>49215.61251916289</v>
+        <v>49199.85415701829</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>27.29428387851803</v>
       </c>
       <c r="T5" t="n">
         <v>49294.74163904427</v>
@@ -1318,49 +1378,49 @@
         <v>49143.7729793856</v>
       </c>
       <c r="V5" t="n">
-        <v>49143.7729793856</v>
+        <v>49215.61251916289</v>
       </c>
       <c r="W5" t="n">
-        <v>49194.09586593849</v>
+        <v>49218.04237919758</v>
       </c>
       <c r="X5" t="n">
-        <v>87.16179629313369</v>
+        <v>75.5136558155243</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="Z5" t="n">
         <v>0.0065</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0066</v>
+        <v>0.0065</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0065</v>
+        <v>0.006433333333333333</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0643</v>
+        <v>0.0645</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0648</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0648</v>
+        <v>0.0636</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.06463333333333333</v>
+        <v>0.06426666666666665</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0699</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0704</v>
+        <v>0.0718</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0701</v>
+        <v>0.0713</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.07013333333333334</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -1435,6 +1495,21 @@
       <c r="AY5" t="inlineStr">
         <is>
           <t>./tcImages/lin318_3_GA_ACO_(1 line)_10.png</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_All_10.png</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_All_10.png</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_All_10.png</t>
         </is>
       </c>
     </row>
@@ -1469,85 +1544,85 @@
         <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>562896.9251052644</v>
+        <v>534594.0100370105</v>
       </c>
       <c r="K6" t="n">
-        <v>533114.824969254</v>
+        <v>533135.3539705164</v>
       </c>
       <c r="L6" t="n">
-        <v>530123.5255424454</v>
+        <v>545755.2663368067</v>
       </c>
       <c r="M6" t="n">
-        <v>542045.0918723213</v>
+        <v>537828.2101147779</v>
       </c>
       <c r="N6" t="n">
-        <v>18120.04911544285</v>
+        <v>6903.664580531461</v>
       </c>
       <c r="O6" t="n">
+        <v>48452.08503658375</v>
+      </c>
+      <c r="P6" t="n">
+        <v>48786.55204087113</v>
+      </c>
+      <c r="Q6" t="n">
         <v>49215.61251916289</v>
       </c>
-      <c r="P6" t="n">
-        <v>48908.16748127056</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>48501.91935279912</v>
-      </c>
       <c r="R6" t="n">
-        <v>48875.23311774419</v>
+        <v>48818.08319887259</v>
       </c>
       <c r="S6" t="n">
-        <v>357.9846199967952</v>
+        <v>382.7390946938857</v>
       </c>
       <c r="T6" t="n">
         <v>49215.61251916289</v>
       </c>
       <c r="U6" t="n">
-        <v>48432.50803209609</v>
+        <v>48452.08503658375</v>
       </c>
       <c r="V6" t="n">
-        <v>48311.16244923814</v>
+        <v>48272.74602537625</v>
       </c>
       <c r="W6" t="n">
-        <v>48653.09433349904</v>
+        <v>48646.81452704097</v>
       </c>
       <c r="X6" t="n">
-        <v>490.9187504279052</v>
+        <v>500.6885130664281</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0277</v>
+        <v>0.0284</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0288</v>
+        <v>0.0289</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0294</v>
+        <v>0.029</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02863333333333333</v>
+        <v>0.02876666666666667</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1533</v>
+        <v>0.1577</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1565</v>
+        <v>0.1604</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1565</v>
+        <v>0.1606</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1554333333333333</v>
+        <v>0.1595666666666667</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1836</v>
+        <v>0.1859</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1852</v>
+        <v>0.1896</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1883</v>
+        <v>0.1912</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1857</v>
+        <v>0.1889</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -1622,6 +1697,21 @@
       <c r="AY6" t="inlineStr">
         <is>
           <t>./tcImages/lin318_3_GA_ACO_(1 line)_50.png</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_1_GA_ACO_All_50.png</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_2_GA_ACO_All_50.png</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>./tcImages/lin318_3_GA_ACO_All_50.png</t>
         </is>
       </c>
     </row>
